--- a/Accompanying files/Механики.xlsx
+++ b/Accompanying files/Механики.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Радар" sheetId="2" r:id="rId1"/>
+    <sheet name="Missiles" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Тип</t>
   </si>
@@ -62,6 +63,60 @@
   </si>
   <si>
     <t>Boost</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>DropImpulse</t>
+  </si>
+  <si>
+    <t>turnSpeed</t>
+  </si>
+  <si>
+    <t>aimCone</t>
+  </si>
+  <si>
+    <t>explosionRange</t>
+  </si>
+  <si>
+    <t>explosionTime</t>
+  </si>
+  <si>
+    <t>MaxRange</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Metheor</t>
+  </si>
+  <si>
+    <t>Interseptor</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t>ShieldBraker</t>
+  </si>
+  <si>
+    <t>Unitary</t>
+  </si>
+  <si>
+    <t>Sprute</t>
+  </si>
+  <si>
+    <t>Nuke</t>
+  </si>
+  <si>
+    <t>Thunderbolth</t>
+  </si>
+  <si>
+    <t>Dragontooth</t>
   </si>
 </sst>
 </file>
@@ -396,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -618,4 +673,321 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>((B2*F2*F2)/2)-G2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>((B3*F3*F3)/2)-G3</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>((B4*F4*F4)/2)-G4</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>((B5*F5*F5)/2)-G5</f>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <f>((B6*F6*F6)/2)-G6</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>4000</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>((B7*F7*F7)/2)-G7</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>90</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <f>((B8*F8*F8)/2)-G8</f>
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>4000</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <f>((B9*F9*F9)/2)-G9</f>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4000</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <f>((B10*F10*F10)/2)-G10</f>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4000</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>((B11*F11*F11)/2)-G11</f>
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>